--- a/biology/Biochimie/Griffithsine/Griffithsine.xlsx
+++ b/biology/Biochimie/Griffithsine/Griffithsine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La griffithsine est une protéine isolée d'algues rouges du genre Griffithsia. Elle consiste en une chaîne polypeptidique de 121 résidus d'acides aminés[2] présentant un repliement lectine de type jacaline (en). On a montré in vitro que cette protéine est un puissant inhibiteur de fusion, de sorte qu'elle est étudiée pour la prévention de  la transmission du VIH[3].
-La griffithsine est également capable de se lier aux glycoprotéines de nombreux virus, par exemple de coronavirus comme le SARS-CoV[4], ce qui bloque l'entrée du virus dans la cellule hôte. Elle présente également une activité antivirale contre le virus Ebola[5].
-On a montré qu'il est possible de produire de grandes quantités de griffithsine à partir de feuilles de tabac infectées par un virus de la mosaïque du tabac modifié pour exprimer le gène de cette protéine[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La griffithsine est une protéine isolée d'algues rouges du genre Griffithsia. Elle consiste en une chaîne polypeptidique de 121 résidus d'acides aminés présentant un repliement lectine de type jacaline (en). On a montré in vitro que cette protéine est un puissant inhibiteur de fusion, de sorte qu'elle est étudiée pour la prévention de  la transmission du VIH.
+La griffithsine est également capable de se lier aux glycoprotéines de nombreux virus, par exemple de coronavirus comme le SARS-CoV, ce qui bloque l'entrée du virus dans la cellule hôte. Elle présente également une activité antivirale contre le virus Ebola.
+On a montré qu'il est possible de produire de grandes quantités de griffithsine à partir de feuilles de tabac infectées par un virus de la mosaïque du tabac modifié pour exprimer le gène de cette protéine.
 </t>
         </is>
       </c>
